--- a/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -390,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -434,11 +578,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -465,8 +645,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="81" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,186 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -534,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -614,11 +794,56 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -669,8 +894,38 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="80" fillId="0" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
